--- a/CMCSA.xlsx
+++ b/CMCSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1F915-7D5C-4FEB-B8E2-D8269D492D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC682EF-C824-4E8A-92A9-65B5F7C8A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Comcast</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>Xfinity, Comcast Business, Sky, NBC, Telemundo, Universal, Peacock, Dream Work</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -577,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208684AD-F8B4-47A7-A479-1A35C76A71E7}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>36.51</v>
+        <v>34.549999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -607,15 +619,15 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <f>3817.095628+9.444375</f>
-        <v>3826.5400030000001</v>
+        <f>3742.259552+9.444375</f>
+        <v>3751.703927</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
@@ -623,21 +635,21 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>139706.97550952999</v>
+        <v>129621.37067784999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>8814</v>
+        <v>8593</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -645,11 +657,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>98754+2610</f>
-        <v>101364</v>
+        <f>6848+92274</f>
+        <v>99122</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -658,7 +670,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>232256.97550952999</v>
+        <v>220150.37067784998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -683,11 +695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B635C668-6058-4A9E-9B76-874D42A89C4B}">
   <dimension ref="A1:AT290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +738,18 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -737,13 +761,17 @@
         <v>17951</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>17868</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>17866</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>17642</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -784,13 +812,17 @@
         <v>2320</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>2407</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>2425</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>2496</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -831,13 +863,17 @@
         <v>6029</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>6371</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>8231</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>6440</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -878,13 +914,17 @@
         <v>2518</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>2743</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>2826</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>2826</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -931,13 +971,17 @@
         <v>2418</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1979</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
         <v>2289</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>1876</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -984,13 +1028,17 @@
         <v>656</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>779</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
         <v>686</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>752</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1037,13 +1085,17 @@
         <v>30115</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>30058</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
         <v>32070</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="6">
+        <v>29887</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1090,13 +1142,17 @@
         <v>8652</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>8823</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>10216</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>8415</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1155,7 +1211,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21235</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
@@ -1166,13 +1222,25 @@
         <v>21854</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11" si="1">+J9-J10</f>
+        <f t="shared" ref="J11:N11" si="1">+J9-J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>21472</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1216,13 +1284,17 @@
         <v>1866</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>2018</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>1989</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>2071</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1269,13 +1341,17 @@
         <v>9629</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>9857</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
         <v>10128</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>9893</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1322,13 +1398,17 @@
         <v>2203</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>2175</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
         <v>2219</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>2231</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1375,13 +1455,17 @@
         <v>1290</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>1376</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
         <v>1659</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>1618</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1440,7 +1524,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5809</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
@@ -1451,13 +1535,25 @@
         <v>5859</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16" si="3">+J11-SUM(J12:J15)</f>
+        <f t="shared" ref="J16:N16" si="3">+J11-SUM(J12:J15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="3">
+        <f t="shared" si="3"/>
+        <v>5659</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1501,13 +1597,17 @@
         <v>1060</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>1002</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>1037</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>1050</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1554,13 +1654,17 @@
         <v>50</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>298</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
         <v>-3</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>-116</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1619,7 +1723,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5105</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
@@ -1630,13 +1734,25 @@
         <v>4819</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="5">+J16-J17+J18</f>
+        <f t="shared" ref="J19:N19" si="5">+J16-J17+J18</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
+        <v>4493</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1680,13 +1796,17 @@
         <v>1468</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>1328</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
         <v>1243</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>1196</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1745,7 +1865,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3777</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="6"/>
@@ -1756,13 +1876,25 @@
         <v>3576</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21" si="7">+J19-J20</f>
+        <f t="shared" ref="J21:N21" si="7">+J19-J20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="7"/>
+        <v>3297</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1806,13 +1938,17 @@
         <v>-49</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>-79</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>-53</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>-79</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1871,7 +2007,7 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3856</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="8"/>
@@ -1882,13 +2018,25 @@
         <v>3629</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23" si="9">+J21-J22</f>
+        <f t="shared" ref="J23:N23" si="9">+J21-J22</f>
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="3">
+        <f t="shared" si="9"/>
+        <v>3376</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1978,13 +2126,19 @@
         <v>0.98</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2">
+        <f>+G23/G26</f>
+        <v>0.97398332912351604</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2">
         <v>0.94</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="2">
+        <f>+K23/K26</f>
+        <v>0.89596602972399153</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2032,14 +2186,21 @@
         <v>4128.5714285714284</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>3959</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
         <f>+I23/I25</f>
         <v>3860.6382978723404</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3" t="e">
+        <f t="shared" ref="J26:N26" si="10">+J23/J25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3768</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>

--- a/CMCSA.xlsx
+++ b/CMCSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC682EF-C824-4E8A-92A9-65B5F7C8A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE41A7-1281-46FB-815F-A0426FCDA311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,12 +196,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -212,12 +210,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,17 +252,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,33 +601,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208684AD-F8B4-47A7-A479-1A35C76A71E7}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>34.549999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -626,11 +639,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -638,11 +651,11 @@
         <v>129621.37067784999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -652,8 +665,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -664,8 +677,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -673,16 +686,16 @@
         <v>220150.37067784998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -695,25 +708,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B635C668-6058-4A9E-9B76-874D42A89C4B}">
   <dimension ref="A1:AT290"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -751,8 +765,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3"/>
@@ -802,8 +816,8 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3"/>
@@ -853,8 +867,8 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3"/>
@@ -904,8 +918,8 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3"/>
@@ -961,8 +975,8 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
@@ -1018,8 +1032,8 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3"/>
@@ -1075,25 +1089,25 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>30115</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
         <v>30058</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
         <v>32070</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
         <v>29887</v>
       </c>
       <c r="L9" s="3"/>
@@ -1132,8 +1146,8 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
@@ -1189,8 +1203,8 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3">
@@ -1274,8 +1288,8 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3"/>
@@ -1331,8 +1345,8 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3"/>
@@ -1388,8 +1402,8 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3"/>
@@ -1445,8 +1459,8 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3"/>
@@ -1502,8 +1516,8 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3">
@@ -1587,8 +1601,8 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
@@ -1644,8 +1658,8 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3"/>
@@ -1701,8 +1715,8 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3">
@@ -1786,8 +1800,8 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3"/>
@@ -1843,8 +1857,8 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="3">
@@ -1928,8 +1942,8 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="3"/>
@@ -1985,8 +1999,8 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="3">
@@ -2070,7 +2084,7 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
     </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2116,26 +2130,26 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="2">
+      <c r="E25" s="8">
         <v>0.98</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <f>+G23/G26</f>
         <v>0.97398332912351604</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="2">
+      <c r="I25" s="8">
         <v>0.94</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="2">
+      <c r="K25" s="8">
         <f>+K23/K26</f>
         <v>0.89596602972399153</v>
       </c>
@@ -2175,8 +2189,8 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3"/>
@@ -2195,7 +2209,7 @@
         <v>3860.6382978723404</v>
       </c>
       <c r="J26" s="3" t="e">
-        <f t="shared" ref="J26:N26" si="10">+J23/J25</f>
+        <f t="shared" ref="J26" si="10">+J23/J25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="3">
@@ -2237,7 +2251,7 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2283,7 +2297,7 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2329,7 +2343,7 @@
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2375,7 +2389,7 @@
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2421,7 +2435,7 @@
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2467,7 +2481,7 @@
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2513,7 +2527,7 @@
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
     </row>
-    <row r="33" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2559,7 +2573,7 @@
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
     </row>
-    <row r="34" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2605,7 +2619,7 @@
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
     </row>
-    <row r="35" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2651,7 +2665,7 @@
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
     </row>
-    <row r="36" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2697,7 +2711,7 @@
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2743,7 +2757,7 @@
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
     </row>
-    <row r="38" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2789,7 +2803,7 @@
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
     </row>
-    <row r="39" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2835,7 +2849,7 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
     </row>
-    <row r="40" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2881,7 +2895,7 @@
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
     </row>
-    <row r="41" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2927,7 +2941,7 @@
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2973,7 +2987,7 @@
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
     </row>
-    <row r="43" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3019,7 +3033,7 @@
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
     </row>
-    <row r="44" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3065,7 +3079,7 @@
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
     </row>
-    <row r="45" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3111,7 +3125,7 @@
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
     </row>
-    <row r="46" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3157,7 +3171,7 @@
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
     </row>
-    <row r="47" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3203,7 +3217,7 @@
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
     </row>
-    <row r="48" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3249,7 +3263,7 @@
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
     </row>
-    <row r="49" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3295,7 +3309,7 @@
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
     </row>
-    <row r="50" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3341,7 +3355,7 @@
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
     </row>
-    <row r="51" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3387,7 +3401,7 @@
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
     </row>
-    <row r="52" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3433,7 +3447,7 @@
       <c r="AS52" s="3"/>
       <c r="AT52" s="3"/>
     </row>
-    <row r="53" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3479,7 +3493,7 @@
       <c r="AS53" s="3"/>
       <c r="AT53" s="3"/>
     </row>
-    <row r="54" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3525,7 +3539,7 @@
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
     </row>
-    <row r="55" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3571,7 +3585,7 @@
       <c r="AS55" s="3"/>
       <c r="AT55" s="3"/>
     </row>
-    <row r="56" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3617,7 +3631,7 @@
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
     </row>
-    <row r="57" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3663,7 +3677,7 @@
       <c r="AS57" s="3"/>
       <c r="AT57" s="3"/>
     </row>
-    <row r="58" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3709,7 +3723,7 @@
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
     </row>
-    <row r="59" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3755,7 +3769,7 @@
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
     </row>
-    <row r="60" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3801,7 +3815,7 @@
       <c r="AS60" s="3"/>
       <c r="AT60" s="3"/>
     </row>
-    <row r="61" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3847,7 +3861,7 @@
       <c r="AS61" s="3"/>
       <c r="AT61" s="3"/>
     </row>
-    <row r="62" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3893,7 +3907,7 @@
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
     </row>
-    <row r="63" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3939,7 +3953,7 @@
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
     </row>
-    <row r="64" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3985,7 +3999,7 @@
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
     </row>
-    <row r="65" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4031,7 +4045,7 @@
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
     </row>
-    <row r="66" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4077,7 +4091,7 @@
       <c r="AS66" s="3"/>
       <c r="AT66" s="3"/>
     </row>
-    <row r="67" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4123,7 +4137,7 @@
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
     </row>
-    <row r="68" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4169,7 +4183,7 @@
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
     </row>
-    <row r="69" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4215,7 +4229,7 @@
       <c r="AS69" s="3"/>
       <c r="AT69" s="3"/>
     </row>
-    <row r="70" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4261,7 +4275,7 @@
       <c r="AS70" s="3"/>
       <c r="AT70" s="3"/>
     </row>
-    <row r="71" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4307,7 +4321,7 @@
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
     </row>
-    <row r="72" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4353,7 +4367,7 @@
       <c r="AS72" s="3"/>
       <c r="AT72" s="3"/>
     </row>
-    <row r="73" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4399,7 +4413,7 @@
       <c r="AS73" s="3"/>
       <c r="AT73" s="3"/>
     </row>
-    <row r="74" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4445,7 +4459,7 @@
       <c r="AS74" s="3"/>
       <c r="AT74" s="3"/>
     </row>
-    <row r="75" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4491,7 +4505,7 @@
       <c r="AS75" s="3"/>
       <c r="AT75" s="3"/>
     </row>
-    <row r="76" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4537,7 +4551,7 @@
       <c r="AS76" s="3"/>
       <c r="AT76" s="3"/>
     </row>
-    <row r="77" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4583,7 +4597,7 @@
       <c r="AS77" s="3"/>
       <c r="AT77" s="3"/>
     </row>
-    <row r="78" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4629,7 +4643,7 @@
       <c r="AS78" s="3"/>
       <c r="AT78" s="3"/>
     </row>
-    <row r="79" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4675,7 +4689,7 @@
       <c r="AS79" s="3"/>
       <c r="AT79" s="3"/>
     </row>
-    <row r="80" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4721,7 +4735,7 @@
       <c r="AS80" s="3"/>
       <c r="AT80" s="3"/>
     </row>
-    <row r="81" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4767,7 +4781,7 @@
       <c r="AS81" s="3"/>
       <c r="AT81" s="3"/>
     </row>
-    <row r="82" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4813,7 +4827,7 @@
       <c r="AS82" s="3"/>
       <c r="AT82" s="3"/>
     </row>
-    <row r="83" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4859,7 +4873,7 @@
       <c r="AS83" s="3"/>
       <c r="AT83" s="3"/>
     </row>
-    <row r="84" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4905,7 +4919,7 @@
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
     </row>
-    <row r="85" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4951,7 +4965,7 @@
       <c r="AS85" s="3"/>
       <c r="AT85" s="3"/>
     </row>
-    <row r="86" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4997,7 +5011,7 @@
       <c r="AS86" s="3"/>
       <c r="AT86" s="3"/>
     </row>
-    <row r="87" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5043,7 +5057,7 @@
       <c r="AS87" s="3"/>
       <c r="AT87" s="3"/>
     </row>
-    <row r="88" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5089,7 +5103,7 @@
       <c r="AS88" s="3"/>
       <c r="AT88" s="3"/>
     </row>
-    <row r="89" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5135,7 +5149,7 @@
       <c r="AS89" s="3"/>
       <c r="AT89" s="3"/>
     </row>
-    <row r="90" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5181,7 +5195,7 @@
       <c r="AS90" s="3"/>
       <c r="AT90" s="3"/>
     </row>
-    <row r="91" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5227,7 +5241,7 @@
       <c r="AS91" s="3"/>
       <c r="AT91" s="3"/>
     </row>
-    <row r="92" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5273,7 +5287,7 @@
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
     </row>
-    <row r="93" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5319,7 +5333,7 @@
       <c r="AS93" s="3"/>
       <c r="AT93" s="3"/>
     </row>
-    <row r="94" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5365,7 +5379,7 @@
       <c r="AS94" s="3"/>
       <c r="AT94" s="3"/>
     </row>
-    <row r="95" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5411,7 +5425,7 @@
       <c r="AS95" s="3"/>
       <c r="AT95" s="3"/>
     </row>
-    <row r="96" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5457,7 +5471,7 @@
       <c r="AS96" s="3"/>
       <c r="AT96" s="3"/>
     </row>
-    <row r="97" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5503,7 +5517,7 @@
       <c r="AS97" s="3"/>
       <c r="AT97" s="3"/>
     </row>
-    <row r="98" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5549,7 +5563,7 @@
       <c r="AS98" s="3"/>
       <c r="AT98" s="3"/>
     </row>
-    <row r="99" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5595,7 +5609,7 @@
       <c r="AS99" s="3"/>
       <c r="AT99" s="3"/>
     </row>
-    <row r="100" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5641,7 +5655,7 @@
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
     </row>
-    <row r="101" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5687,7 +5701,7 @@
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
     </row>
-    <row r="102" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5733,7 +5747,7 @@
       <c r="AS102" s="3"/>
       <c r="AT102" s="3"/>
     </row>
-    <row r="103" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5779,7 +5793,7 @@
       <c r="AS103" s="3"/>
       <c r="AT103" s="3"/>
     </row>
-    <row r="104" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5825,7 +5839,7 @@
       <c r="AS104" s="3"/>
       <c r="AT104" s="3"/>
     </row>
-    <row r="105" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5871,7 +5885,7 @@
       <c r="AS105" s="3"/>
       <c r="AT105" s="3"/>
     </row>
-    <row r="106" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5917,7 +5931,7 @@
       <c r="AS106" s="3"/>
       <c r="AT106" s="3"/>
     </row>
-    <row r="107" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5963,7 +5977,7 @@
       <c r="AS107" s="3"/>
       <c r="AT107" s="3"/>
     </row>
-    <row r="108" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -6009,7 +6023,7 @@
       <c r="AS108" s="3"/>
       <c r="AT108" s="3"/>
     </row>
-    <row r="109" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -6055,7 +6069,7 @@
       <c r="AS109" s="3"/>
       <c r="AT109" s="3"/>
     </row>
-    <row r="110" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6101,7 +6115,7 @@
       <c r="AS110" s="3"/>
       <c r="AT110" s="3"/>
     </row>
-    <row r="111" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6147,7 +6161,7 @@
       <c r="AS111" s="3"/>
       <c r="AT111" s="3"/>
     </row>
-    <row r="112" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6193,7 +6207,7 @@
       <c r="AS112" s="3"/>
       <c r="AT112" s="3"/>
     </row>
-    <row r="113" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6239,7 +6253,7 @@
       <c r="AS113" s="3"/>
       <c r="AT113" s="3"/>
     </row>
-    <row r="114" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6285,7 +6299,7 @@
       <c r="AS114" s="3"/>
       <c r="AT114" s="3"/>
     </row>
-    <row r="115" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6331,7 +6345,7 @@
       <c r="AS115" s="3"/>
       <c r="AT115" s="3"/>
     </row>
-    <row r="116" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6377,7 +6391,7 @@
       <c r="AS116" s="3"/>
       <c r="AT116" s="3"/>
     </row>
-    <row r="117" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6423,7 +6437,7 @@
       <c r="AS117" s="3"/>
       <c r="AT117" s="3"/>
     </row>
-    <row r="118" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6469,7 +6483,7 @@
       <c r="AS118" s="3"/>
       <c r="AT118" s="3"/>
     </row>
-    <row r="119" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6515,7 +6529,7 @@
       <c r="AS119" s="3"/>
       <c r="AT119" s="3"/>
     </row>
-    <row r="120" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6561,7 +6575,7 @@
       <c r="AS120" s="3"/>
       <c r="AT120" s="3"/>
     </row>
-    <row r="121" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6607,7 +6621,7 @@
       <c r="AS121" s="3"/>
       <c r="AT121" s="3"/>
     </row>
-    <row r="122" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -6653,7 +6667,7 @@
       <c r="AS122" s="3"/>
       <c r="AT122" s="3"/>
     </row>
-    <row r="123" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6699,7 +6713,7 @@
       <c r="AS123" s="3"/>
       <c r="AT123" s="3"/>
     </row>
-    <row r="124" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6745,7 +6759,7 @@
       <c r="AS124" s="3"/>
       <c r="AT124" s="3"/>
     </row>
-    <row r="125" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6791,7 +6805,7 @@
       <c r="AS125" s="3"/>
       <c r="AT125" s="3"/>
     </row>
-    <row r="126" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6837,7 +6851,7 @@
       <c r="AS126" s="3"/>
       <c r="AT126" s="3"/>
     </row>
-    <row r="127" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6883,7 +6897,7 @@
       <c r="AS127" s="3"/>
       <c r="AT127" s="3"/>
     </row>
-    <row r="128" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6929,7 +6943,7 @@
       <c r="AS128" s="3"/>
       <c r="AT128" s="3"/>
     </row>
-    <row r="129" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6975,7 +6989,7 @@
       <c r="AS129" s="3"/>
       <c r="AT129" s="3"/>
     </row>
-    <row r="130" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -7021,7 +7035,7 @@
       <c r="AS130" s="3"/>
       <c r="AT130" s="3"/>
     </row>
-    <row r="131" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -7067,7 +7081,7 @@
       <c r="AS131" s="3"/>
       <c r="AT131" s="3"/>
     </row>
-    <row r="132" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -7113,7 +7127,7 @@
       <c r="AS132" s="3"/>
       <c r="AT132" s="3"/>
     </row>
-    <row r="133" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7159,7 +7173,7 @@
       <c r="AS133" s="3"/>
       <c r="AT133" s="3"/>
     </row>
-    <row r="134" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7205,7 +7219,7 @@
       <c r="AS134" s="3"/>
       <c r="AT134" s="3"/>
     </row>
-    <row r="135" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -7251,7 +7265,7 @@
       <c r="AS135" s="3"/>
       <c r="AT135" s="3"/>
     </row>
-    <row r="136" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -7297,7 +7311,7 @@
       <c r="AS136" s="3"/>
       <c r="AT136" s="3"/>
     </row>
-    <row r="137" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -7343,7 +7357,7 @@
       <c r="AS137" s="3"/>
       <c r="AT137" s="3"/>
     </row>
-    <row r="138" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -7389,7 +7403,7 @@
       <c r="AS138" s="3"/>
       <c r="AT138" s="3"/>
     </row>
-    <row r="139" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -7435,7 +7449,7 @@
       <c r="AS139" s="3"/>
       <c r="AT139" s="3"/>
     </row>
-    <row r="140" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -7481,7 +7495,7 @@
       <c r="AS140" s="3"/>
       <c r="AT140" s="3"/>
     </row>
-    <row r="141" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -7527,7 +7541,7 @@
       <c r="AS141" s="3"/>
       <c r="AT141" s="3"/>
     </row>
-    <row r="142" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -7573,7 +7587,7 @@
       <c r="AS142" s="3"/>
       <c r="AT142" s="3"/>
     </row>
-    <row r="143" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -7619,7 +7633,7 @@
       <c r="AS143" s="3"/>
       <c r="AT143" s="3"/>
     </row>
-    <row r="144" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -7665,7 +7679,7 @@
       <c r="AS144" s="3"/>
       <c r="AT144" s="3"/>
     </row>
-    <row r="145" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -7711,7 +7725,7 @@
       <c r="AS145" s="3"/>
       <c r="AT145" s="3"/>
     </row>
-    <row r="146" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -7757,7 +7771,7 @@
       <c r="AS146" s="3"/>
       <c r="AT146" s="3"/>
     </row>
-    <row r="147" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -7803,7 +7817,7 @@
       <c r="AS147" s="3"/>
       <c r="AT147" s="3"/>
     </row>
-    <row r="148" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -7849,7 +7863,7 @@
       <c r="AS148" s="3"/>
       <c r="AT148" s="3"/>
     </row>
-    <row r="149" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -7895,7 +7909,7 @@
       <c r="AS149" s="3"/>
       <c r="AT149" s="3"/>
     </row>
-    <row r="150" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -7941,7 +7955,7 @@
       <c r="AS150" s="3"/>
       <c r="AT150" s="3"/>
     </row>
-    <row r="151" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -7987,7 +8001,7 @@
       <c r="AS151" s="3"/>
       <c r="AT151" s="3"/>
     </row>
-    <row r="152" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -8033,7 +8047,7 @@
       <c r="AS152" s="3"/>
       <c r="AT152" s="3"/>
     </row>
-    <row r="153" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -8079,7 +8093,7 @@
       <c r="AS153" s="3"/>
       <c r="AT153" s="3"/>
     </row>
-    <row r="154" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -8125,7 +8139,7 @@
       <c r="AS154" s="3"/>
       <c r="AT154" s="3"/>
     </row>
-    <row r="155" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -8171,7 +8185,7 @@
       <c r="AS155" s="3"/>
       <c r="AT155" s="3"/>
     </row>
-    <row r="156" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -8217,7 +8231,7 @@
       <c r="AS156" s="3"/>
       <c r="AT156" s="3"/>
     </row>
-    <row r="157" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -8263,7 +8277,7 @@
       <c r="AS157" s="3"/>
       <c r="AT157" s="3"/>
     </row>
-    <row r="158" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -8309,7 +8323,7 @@
       <c r="AS158" s="3"/>
       <c r="AT158" s="3"/>
     </row>
-    <row r="159" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -8355,7 +8369,7 @@
       <c r="AS159" s="3"/>
       <c r="AT159" s="3"/>
     </row>
-    <row r="160" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -8401,7 +8415,7 @@
       <c r="AS160" s="3"/>
       <c r="AT160" s="3"/>
     </row>
-    <row r="161" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -8447,7 +8461,7 @@
       <c r="AS161" s="3"/>
       <c r="AT161" s="3"/>
     </row>
-    <row r="162" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -8493,7 +8507,7 @@
       <c r="AS162" s="3"/>
       <c r="AT162" s="3"/>
     </row>
-    <row r="163" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -8539,7 +8553,7 @@
       <c r="AS163" s="3"/>
       <c r="AT163" s="3"/>
     </row>
-    <row r="164" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -8585,7 +8599,7 @@
       <c r="AS164" s="3"/>
       <c r="AT164" s="3"/>
     </row>
-    <row r="165" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -8631,7 +8645,7 @@
       <c r="AS165" s="3"/>
       <c r="AT165" s="3"/>
     </row>
-    <row r="166" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -8677,7 +8691,7 @@
       <c r="AS166" s="3"/>
       <c r="AT166" s="3"/>
     </row>
-    <row r="167" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8723,7 +8737,7 @@
       <c r="AS167" s="3"/>
       <c r="AT167" s="3"/>
     </row>
-    <row r="168" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -8769,7 +8783,7 @@
       <c r="AS168" s="3"/>
       <c r="AT168" s="3"/>
     </row>
-    <row r="169" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -8815,7 +8829,7 @@
       <c r="AS169" s="3"/>
       <c r="AT169" s="3"/>
     </row>
-    <row r="170" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -8861,7 +8875,7 @@
       <c r="AS170" s="3"/>
       <c r="AT170" s="3"/>
     </row>
-    <row r="171" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -8907,7 +8921,7 @@
       <c r="AS171" s="3"/>
       <c r="AT171" s="3"/>
     </row>
-    <row r="172" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -8953,7 +8967,7 @@
       <c r="AS172" s="3"/>
       <c r="AT172" s="3"/>
     </row>
-    <row r="173" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -8999,7 +9013,7 @@
       <c r="AS173" s="3"/>
       <c r="AT173" s="3"/>
     </row>
-    <row r="174" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -9045,7 +9059,7 @@
       <c r="AS174" s="3"/>
       <c r="AT174" s="3"/>
     </row>
-    <row r="175" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -9091,7 +9105,7 @@
       <c r="AS175" s="3"/>
       <c r="AT175" s="3"/>
     </row>
-    <row r="176" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -9137,7 +9151,7 @@
       <c r="AS176" s="3"/>
       <c r="AT176" s="3"/>
     </row>
-    <row r="177" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -9183,7 +9197,7 @@
       <c r="AS177" s="3"/>
       <c r="AT177" s="3"/>
     </row>
-    <row r="178" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -9229,7 +9243,7 @@
       <c r="AS178" s="3"/>
       <c r="AT178" s="3"/>
     </row>
-    <row r="179" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -9275,7 +9289,7 @@
       <c r="AS179" s="3"/>
       <c r="AT179" s="3"/>
     </row>
-    <row r="180" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -9321,7 +9335,7 @@
       <c r="AS180" s="3"/>
       <c r="AT180" s="3"/>
     </row>
-    <row r="181" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -9367,7 +9381,7 @@
       <c r="AS181" s="3"/>
       <c r="AT181" s="3"/>
     </row>
-    <row r="182" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -9413,7 +9427,7 @@
       <c r="AS182" s="3"/>
       <c r="AT182" s="3"/>
     </row>
-    <row r="183" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -9459,7 +9473,7 @@
       <c r="AS183" s="3"/>
       <c r="AT183" s="3"/>
     </row>
-    <row r="184" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -9505,7 +9519,7 @@
       <c r="AS184" s="3"/>
       <c r="AT184" s="3"/>
     </row>
-    <row r="185" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -9551,7 +9565,7 @@
       <c r="AS185" s="3"/>
       <c r="AT185" s="3"/>
     </row>
-    <row r="186" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -9597,7 +9611,7 @@
       <c r="AS186" s="3"/>
       <c r="AT186" s="3"/>
     </row>
-    <row r="187" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -9643,7 +9657,7 @@
       <c r="AS187" s="3"/>
       <c r="AT187" s="3"/>
     </row>
-    <row r="188" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -9689,7 +9703,7 @@
       <c r="AS188" s="3"/>
       <c r="AT188" s="3"/>
     </row>
-    <row r="189" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -9735,7 +9749,7 @@
       <c r="AS189" s="3"/>
       <c r="AT189" s="3"/>
     </row>
-    <row r="190" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -9781,7 +9795,7 @@
       <c r="AS190" s="3"/>
       <c r="AT190" s="3"/>
     </row>
-    <row r="191" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -9827,7 +9841,7 @@
       <c r="AS191" s="3"/>
       <c r="AT191" s="3"/>
     </row>
-    <row r="192" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -9873,7 +9887,7 @@
       <c r="AS192" s="3"/>
       <c r="AT192" s="3"/>
     </row>
-    <row r="193" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -9919,7 +9933,7 @@
       <c r="AS193" s="3"/>
       <c r="AT193" s="3"/>
     </row>
-    <row r="194" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -9965,7 +9979,7 @@
       <c r="AS194" s="3"/>
       <c r="AT194" s="3"/>
     </row>
-    <row r="195" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -10011,7 +10025,7 @@
       <c r="AS195" s="3"/>
       <c r="AT195" s="3"/>
     </row>
-    <row r="196" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -10057,7 +10071,7 @@
       <c r="AS196" s="3"/>
       <c r="AT196" s="3"/>
     </row>
-    <row r="197" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -10103,7 +10117,7 @@
       <c r="AS197" s="3"/>
       <c r="AT197" s="3"/>
     </row>
-    <row r="198" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -10149,7 +10163,7 @@
       <c r="AS198" s="3"/>
       <c r="AT198" s="3"/>
     </row>
-    <row r="199" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -10195,7 +10209,7 @@
       <c r="AS199" s="3"/>
       <c r="AT199" s="3"/>
     </row>
-    <row r="200" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -10241,7 +10255,7 @@
       <c r="AS200" s="3"/>
       <c r="AT200" s="3"/>
     </row>
-    <row r="201" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -10287,7 +10301,7 @@
       <c r="AS201" s="3"/>
       <c r="AT201" s="3"/>
     </row>
-    <row r="202" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -10333,7 +10347,7 @@
       <c r="AS202" s="3"/>
       <c r="AT202" s="3"/>
     </row>
-    <row r="203" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -10379,7 +10393,7 @@
       <c r="AS203" s="3"/>
       <c r="AT203" s="3"/>
     </row>
-    <row r="204" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -10425,7 +10439,7 @@
       <c r="AS204" s="3"/>
       <c r="AT204" s="3"/>
     </row>
-    <row r="205" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -10471,7 +10485,7 @@
       <c r="AS205" s="3"/>
       <c r="AT205" s="3"/>
     </row>
-    <row r="206" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -10517,7 +10531,7 @@
       <c r="AS206" s="3"/>
       <c r="AT206" s="3"/>
     </row>
-    <row r="207" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -10563,7 +10577,7 @@
       <c r="AS207" s="3"/>
       <c r="AT207" s="3"/>
     </row>
-    <row r="208" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -10609,7 +10623,7 @@
       <c r="AS208" s="3"/>
       <c r="AT208" s="3"/>
     </row>
-    <row r="209" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -10655,7 +10669,7 @@
       <c r="AS209" s="3"/>
       <c r="AT209" s="3"/>
     </row>
-    <row r="210" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -10701,7 +10715,7 @@
       <c r="AS210" s="3"/>
       <c r="AT210" s="3"/>
     </row>
-    <row r="211" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -10747,7 +10761,7 @@
       <c r="AS211" s="3"/>
       <c r="AT211" s="3"/>
     </row>
-    <row r="212" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -10793,7 +10807,7 @@
       <c r="AS212" s="3"/>
       <c r="AT212" s="3"/>
     </row>
-    <row r="213" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -10839,7 +10853,7 @@
       <c r="AS213" s="3"/>
       <c r="AT213" s="3"/>
     </row>
-    <row r="214" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -10885,7 +10899,7 @@
       <c r="AS214" s="3"/>
       <c r="AT214" s="3"/>
     </row>
-    <row r="215" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -10931,7 +10945,7 @@
       <c r="AS215" s="3"/>
       <c r="AT215" s="3"/>
     </row>
-    <row r="216" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -10977,7 +10991,7 @@
       <c r="AS216" s="3"/>
       <c r="AT216" s="3"/>
     </row>
-    <row r="217" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -11023,7 +11037,7 @@
       <c r="AS217" s="3"/>
       <c r="AT217" s="3"/>
     </row>
-    <row r="218" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -11069,7 +11083,7 @@
       <c r="AS218" s="3"/>
       <c r="AT218" s="3"/>
     </row>
-    <row r="219" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -11115,7 +11129,7 @@
       <c r="AS219" s="3"/>
       <c r="AT219" s="3"/>
     </row>
-    <row r="220" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -11161,7 +11175,7 @@
       <c r="AS220" s="3"/>
       <c r="AT220" s="3"/>
     </row>
-    <row r="221" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -11207,7 +11221,7 @@
       <c r="AS221" s="3"/>
       <c r="AT221" s="3"/>
     </row>
-    <row r="222" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -11253,7 +11267,7 @@
       <c r="AS222" s="3"/>
       <c r="AT222" s="3"/>
     </row>
-    <row r="223" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -11299,7 +11313,7 @@
       <c r="AS223" s="3"/>
       <c r="AT223" s="3"/>
     </row>
-    <row r="224" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -11345,7 +11359,7 @@
       <c r="AS224" s="3"/>
       <c r="AT224" s="3"/>
     </row>
-    <row r="225" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -11391,7 +11405,7 @@
       <c r="AS225" s="3"/>
       <c r="AT225" s="3"/>
     </row>
-    <row r="226" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -11437,7 +11451,7 @@
       <c r="AS226" s="3"/>
       <c r="AT226" s="3"/>
     </row>
-    <row r="227" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -11483,7 +11497,7 @@
       <c r="AS227" s="3"/>
       <c r="AT227" s="3"/>
     </row>
-    <row r="228" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -11529,7 +11543,7 @@
       <c r="AS228" s="3"/>
       <c r="AT228" s="3"/>
     </row>
-    <row r="229" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -11575,7 +11589,7 @@
       <c r="AS229" s="3"/>
       <c r="AT229" s="3"/>
     </row>
-    <row r="230" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -11621,7 +11635,7 @@
       <c r="AS230" s="3"/>
       <c r="AT230" s="3"/>
     </row>
-    <row r="231" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -11667,7 +11681,7 @@
       <c r="AS231" s="3"/>
       <c r="AT231" s="3"/>
     </row>
-    <row r="232" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -11713,7 +11727,7 @@
       <c r="AS232" s="3"/>
       <c r="AT232" s="3"/>
     </row>
-    <row r="233" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -11759,7 +11773,7 @@
       <c r="AS233" s="3"/>
       <c r="AT233" s="3"/>
     </row>
-    <row r="234" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -11805,7 +11819,7 @@
       <c r="AS234" s="3"/>
       <c r="AT234" s="3"/>
     </row>
-    <row r="235" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -11851,7 +11865,7 @@
       <c r="AS235" s="3"/>
       <c r="AT235" s="3"/>
     </row>
-    <row r="236" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -11897,7 +11911,7 @@
       <c r="AS236" s="3"/>
       <c r="AT236" s="3"/>
     </row>
-    <row r="237" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -11943,7 +11957,7 @@
       <c r="AS237" s="3"/>
       <c r="AT237" s="3"/>
     </row>
-    <row r="238" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -11989,7 +12003,7 @@
       <c r="AS238" s="3"/>
       <c r="AT238" s="3"/>
     </row>
-    <row r="239" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -12035,7 +12049,7 @@
       <c r="AS239" s="3"/>
       <c r="AT239" s="3"/>
     </row>
-    <row r="240" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -12081,7 +12095,7 @@
       <c r="AS240" s="3"/>
       <c r="AT240" s="3"/>
     </row>
-    <row r="241" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -12127,7 +12141,7 @@
       <c r="AS241" s="3"/>
       <c r="AT241" s="3"/>
     </row>
-    <row r="242" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -12173,7 +12187,7 @@
       <c r="AS242" s="3"/>
       <c r="AT242" s="3"/>
     </row>
-    <row r="243" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -12219,7 +12233,7 @@
       <c r="AS243" s="3"/>
       <c r="AT243" s="3"/>
     </row>
-    <row r="244" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -12265,7 +12279,7 @@
       <c r="AS244" s="3"/>
       <c r="AT244" s="3"/>
     </row>
-    <row r="245" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -12311,7 +12325,7 @@
       <c r="AS245" s="3"/>
       <c r="AT245" s="3"/>
     </row>
-    <row r="246" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -12357,7 +12371,7 @@
       <c r="AS246" s="3"/>
       <c r="AT246" s="3"/>
     </row>
-    <row r="247" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -12403,7 +12417,7 @@
       <c r="AS247" s="3"/>
       <c r="AT247" s="3"/>
     </row>
-    <row r="248" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -12449,7 +12463,7 @@
       <c r="AS248" s="3"/>
       <c r="AT248" s="3"/>
     </row>
-    <row r="249" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -12495,7 +12509,7 @@
       <c r="AS249" s="3"/>
       <c r="AT249" s="3"/>
     </row>
-    <row r="250" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -12541,7 +12555,7 @@
       <c r="AS250" s="3"/>
       <c r="AT250" s="3"/>
     </row>
-    <row r="251" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -12587,7 +12601,7 @@
       <c r="AS251" s="3"/>
       <c r="AT251" s="3"/>
     </row>
-    <row r="252" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -12633,7 +12647,7 @@
       <c r="AS252" s="3"/>
       <c r="AT252" s="3"/>
     </row>
-    <row r="253" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -12679,7 +12693,7 @@
       <c r="AS253" s="3"/>
       <c r="AT253" s="3"/>
     </row>
-    <row r="254" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -12725,7 +12739,7 @@
       <c r="AS254" s="3"/>
       <c r="AT254" s="3"/>
     </row>
-    <row r="255" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -12771,7 +12785,7 @@
       <c r="AS255" s="3"/>
       <c r="AT255" s="3"/>
     </row>
-    <row r="256" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -12817,7 +12831,7 @@
       <c r="AS256" s="3"/>
       <c r="AT256" s="3"/>
     </row>
-    <row r="257" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -12863,7 +12877,7 @@
       <c r="AS257" s="3"/>
       <c r="AT257" s="3"/>
     </row>
-    <row r="258" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -12909,7 +12923,7 @@
       <c r="AS258" s="3"/>
       <c r="AT258" s="3"/>
     </row>
-    <row r="259" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -12955,7 +12969,7 @@
       <c r="AS259" s="3"/>
       <c r="AT259" s="3"/>
     </row>
-    <row r="260" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -13001,7 +13015,7 @@
       <c r="AS260" s="3"/>
       <c r="AT260" s="3"/>
     </row>
-    <row r="261" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -13047,7 +13061,7 @@
       <c r="AS261" s="3"/>
       <c r="AT261" s="3"/>
     </row>
-    <row r="262" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -13093,7 +13107,7 @@
       <c r="AS262" s="3"/>
       <c r="AT262" s="3"/>
     </row>
-    <row r="263" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -13139,7 +13153,7 @@
       <c r="AS263" s="3"/>
       <c r="AT263" s="3"/>
     </row>
-    <row r="264" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -13185,7 +13199,7 @@
       <c r="AS264" s="3"/>
       <c r="AT264" s="3"/>
     </row>
-    <row r="265" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -13231,7 +13245,7 @@
       <c r="AS265" s="3"/>
       <c r="AT265" s="3"/>
     </row>
-    <row r="266" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -13277,7 +13291,7 @@
       <c r="AS266" s="3"/>
       <c r="AT266" s="3"/>
     </row>
-    <row r="267" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -13323,7 +13337,7 @@
       <c r="AS267" s="3"/>
       <c r="AT267" s="3"/>
     </row>
-    <row r="268" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -13369,7 +13383,7 @@
       <c r="AS268" s="3"/>
       <c r="AT268" s="3"/>
     </row>
-    <row r="269" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -13415,7 +13429,7 @@
       <c r="AS269" s="3"/>
       <c r="AT269" s="3"/>
     </row>
-    <row r="270" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -13461,7 +13475,7 @@
       <c r="AS270" s="3"/>
       <c r="AT270" s="3"/>
     </row>
-    <row r="271" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -13507,7 +13521,7 @@
       <c r="AS271" s="3"/>
       <c r="AT271" s="3"/>
     </row>
-    <row r="272" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -13553,7 +13567,7 @@
       <c r="AS272" s="3"/>
       <c r="AT272" s="3"/>
     </row>
-    <row r="273" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -13599,7 +13613,7 @@
       <c r="AS273" s="3"/>
       <c r="AT273" s="3"/>
     </row>
-    <row r="274" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -13645,7 +13659,7 @@
       <c r="AS274" s="3"/>
       <c r="AT274" s="3"/>
     </row>
-    <row r="275" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -13691,7 +13705,7 @@
       <c r="AS275" s="3"/>
       <c r="AT275" s="3"/>
     </row>
-    <row r="276" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -13737,7 +13751,7 @@
       <c r="AS276" s="3"/>
       <c r="AT276" s="3"/>
     </row>
-    <row r="277" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -13783,7 +13797,7 @@
       <c r="AS277" s="3"/>
       <c r="AT277" s="3"/>
     </row>
-    <row r="278" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -13829,7 +13843,7 @@
       <c r="AS278" s="3"/>
       <c r="AT278" s="3"/>
     </row>
-    <row r="279" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -13875,7 +13889,7 @@
       <c r="AS279" s="3"/>
       <c r="AT279" s="3"/>
     </row>
-    <row r="280" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -13921,7 +13935,7 @@
       <c r="AS280" s="3"/>
       <c r="AT280" s="3"/>
     </row>
-    <row r="281" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -13967,7 +13981,7 @@
       <c r="AS281" s="3"/>
       <c r="AT281" s="3"/>
     </row>
-    <row r="282" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -14013,7 +14027,7 @@
       <c r="AS282" s="3"/>
       <c r="AT282" s="3"/>
     </row>
-    <row r="283" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -14059,7 +14073,7 @@
       <c r="AS283" s="3"/>
       <c r="AT283" s="3"/>
     </row>
-    <row r="284" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -14105,7 +14119,7 @@
       <c r="AS284" s="3"/>
       <c r="AT284" s="3"/>
     </row>
-    <row r="285" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -14151,7 +14165,7 @@
       <c r="AS285" s="3"/>
       <c r="AT285" s="3"/>
     </row>
-    <row r="286" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -14197,7 +14211,7 @@
       <c r="AS286" s="3"/>
       <c r="AT286" s="3"/>
     </row>
-    <row r="287" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -14243,7 +14257,7 @@
       <c r="AS287" s="3"/>
       <c r="AT287" s="3"/>
     </row>
-    <row r="288" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -14289,7 +14303,7 @@
       <c r="AS288" s="3"/>
       <c r="AT288" s="3"/>
     </row>
-    <row r="289" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -14335,7 +14349,7 @@
       <c r="AS289" s="3"/>
       <c r="AT289" s="3"/>
     </row>
-    <row r="290" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>

--- a/CMCSA.xlsx
+++ b/CMCSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE41A7-1281-46FB-815F-A0426FCDA311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A8F6BE-4802-45B4-9E07-550DE777D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -187,13 +187,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,20 +256,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -601,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208684AD-F8B4-47A7-A479-1A35C76A71E7}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>34.549999999999997</v>
+        <v>33.840000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -632,11 +642,11 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <f>3742.259552+9.444375</f>
-        <v>3751.703927</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>44</v>
+        <f>3682.762127+9.444375</f>
+        <v>3692.206502</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -648,7 +658,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>129621.37067784999</v>
+        <v>124944.26802768001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -659,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>8593</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>9687</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,11 +680,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>6848+92274</f>
-        <v>99122</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
+        <f>95808+5720</f>
+        <v>101528</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -683,7 +693,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>220150.37067784998</v>
+        <v>216785.26802767999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -708,11 +718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B635C668-6058-4A9E-9B76-874D42A89C4B}">
   <dimension ref="A1:AT290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B4:B5"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -778,7 +788,9 @@
       <c r="G3" s="3">
         <v>17868</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>17824</v>
+      </c>
       <c r="I3" s="3">
         <v>17866</v>
       </c>
@@ -786,7 +798,9 @@
       <c r="K3" s="3">
         <v>17642</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>17814</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -829,7 +843,9 @@
       <c r="G4" s="3">
         <v>2407</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>2421</v>
+      </c>
       <c r="I4" s="3">
         <v>2425</v>
       </c>
@@ -837,7 +853,9 @@
       <c r="K4" s="3">
         <v>2496</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>2575</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -880,7 +898,9 @@
       <c r="G5" s="3">
         <v>6371</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>6324</v>
+      </c>
       <c r="I5" s="3">
         <v>8231</v>
       </c>
@@ -888,7 +908,9 @@
       <c r="K5" s="3">
         <v>6440</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>6440</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -931,7 +953,9 @@
       <c r="G6" s="3">
         <v>2743</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>2253</v>
+      </c>
       <c r="I6" s="3">
         <v>2826</v>
       </c>
@@ -939,7 +963,9 @@
       <c r="K6" s="3">
         <v>2826</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>2432</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -988,7 +1014,9 @@
       <c r="G7" s="3">
         <v>1979</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>1975</v>
+      </c>
       <c r="I7" s="3">
         <v>2289</v>
       </c>
@@ -996,7 +1024,9 @@
       <c r="K7" s="3">
         <v>1876</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>2349</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1045,7 +1075,9 @@
       <c r="G8" s="3">
         <v>779</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>715</v>
+      </c>
       <c r="I8" s="3">
         <v>686</v>
       </c>
@@ -1053,7 +1085,9 @@
       <c r="K8" s="3">
         <v>752</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>717</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1102,7 +1136,9 @@
       <c r="G9" s="7">
         <v>30058</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>29688</v>
+      </c>
       <c r="I9" s="7">
         <v>32070</v>
       </c>
@@ -1110,7 +1146,9 @@
       <c r="K9" s="7">
         <v>29887</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="7">
+        <v>30313</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1159,7 +1197,9 @@
       <c r="G10" s="3">
         <v>8823</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>7961</v>
+      </c>
       <c r="I10" s="3">
         <v>10216</v>
       </c>
@@ -1167,7 +1207,9 @@
       <c r="K10" s="3">
         <v>8415</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>7576</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1228,8 +1270,8 @@
         <v>21235</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>+H9-H10</f>
+        <v>21727</v>
       </c>
       <c r="I11" s="3">
         <f>+I9-I10</f>
@@ -1245,7 +1287,7 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22737</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="1"/>
@@ -1301,7 +1343,9 @@
       <c r="G12" s="3">
         <v>2018</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>1922</v>
+      </c>
       <c r="I12" s="3">
         <v>1989</v>
       </c>
@@ -1309,7 +1353,9 @@
       <c r="K12" s="3">
         <v>2071</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>2168</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1358,7 +1404,9 @@
       <c r="G13" s="3">
         <v>9857</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>9630</v>
+      </c>
       <c r="I13" s="3">
         <v>10128</v>
       </c>
@@ -1366,7 +1414,9 @@
       <c r="K13" s="3">
         <v>9893</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>10422</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1415,7 +1465,9 @@
       <c r="G14" s="3">
         <v>2175</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>2153</v>
+      </c>
       <c r="I14" s="3">
         <v>2219</v>
       </c>
@@ -1423,7 +1475,9 @@
       <c r="K14" s="3">
         <v>2231</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>2349</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1472,7 +1526,9 @@
       <c r="G15" s="3">
         <v>1376</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>1387</v>
+      </c>
       <c r="I15" s="3">
         <v>1659</v>
       </c>
@@ -1480,7 +1536,9 @@
       <c r="K15" s="3">
         <v>1618</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>1805</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1542,7 +1600,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6635</v>
       </c>
       <c r="I16" s="3">
         <f>+I11-SUM(I12:I15)</f>
@@ -1558,7 +1616,7 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5993</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="3"/>
@@ -1614,7 +1672,9 @@
       <c r="G17" s="3">
         <v>1002</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>1026</v>
+      </c>
       <c r="I17" s="3">
         <v>1037</v>
       </c>
@@ -1622,7 +1682,9 @@
       <c r="K17" s="3">
         <v>1050</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>1105</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1671,7 +1733,9 @@
       <c r="G18" s="3">
         <v>298</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>-434</v>
+      </c>
       <c r="I18" s="3">
         <v>-3</v>
       </c>
@@ -1679,7 +1743,9 @@
       <c r="K18" s="3">
         <v>-116</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>9760</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1741,7 +1807,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="I19" s="3">
         <f>+I16-I17+I18</f>
@@ -1757,7 +1823,7 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14648</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="5"/>
@@ -1813,7 +1879,9 @@
       <c r="G20" s="3">
         <v>1328</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>3839</v>
+      </c>
       <c r="I20" s="3">
         <v>1243</v>
       </c>
@@ -1821,7 +1889,9 @@
       <c r="K20" s="3">
         <v>1196</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>3603</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1883,7 +1953,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="I21" s="3">
         <f>+I19-I20</f>
@@ -1899,7 +1969,7 @@
       </c>
       <c r="L21" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11045</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="7"/>
@@ -1955,7 +2025,9 @@
       <c r="G22" s="3">
         <v>-79</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>-89</v>
+      </c>
       <c r="I22" s="3">
         <v>-53</v>
       </c>
@@ -1963,7 +2035,9 @@
       <c r="K22" s="3">
         <v>-79</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>-79</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2025,7 +2099,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="I23" s="3">
         <f>+I21-I22</f>
@@ -2041,7 +2115,7 @@
       </c>
       <c r="L23" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11124</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="9"/>
@@ -2090,7 +2164,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2144,7 +2218,10 @@
         <f>+G23/G26</f>
         <v>0.97398332912351604</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="8">
+        <f>+H23/H26</f>
+        <v>0.36491677336747758</v>
+      </c>
       <c r="I25" s="8">
         <v>0.94</v>
       </c>
@@ -2153,7 +2230,10 @@
         <f>+K23/K26</f>
         <v>0.89596602972399153</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="8">
+        <f>+L23/L26</f>
+        <v>2.9903225806451612</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2203,7 +2283,9 @@
       <c r="G26" s="3">
         <v>3959</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>3905</v>
+      </c>
       <c r="I26" s="3">
         <f>+I23/I25</f>
         <v>3860.6382978723404</v>
@@ -2215,7 +2297,9 @@
       <c r="K26" s="3">
         <v>3768</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>3720</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>

--- a/CMCSA.xlsx
+++ b/CMCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A8F6BE-4802-45B4-9E07-550DE777D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CC52D-95E5-4239-9219-671F64777642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{96558C01-400B-4A10-8C54-2EE5E9980BD4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Comcast</t>
   </si>
@@ -182,18 +182,42 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>Total Costumer Relationships</t>
+  </si>
+  <si>
+    <t>Domestic Broadband Costumers</t>
+  </si>
+  <si>
+    <t>Domestic Wireless Lines</t>
+  </si>
+  <si>
+    <t>Domestic Video Costumers</t>
+  </si>
+  <si>
+    <t>Domestic homes and business passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Broadband Penetration </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -256,24 +280,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>33.840000000000003</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -642,11 +676,11 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <f>3682.762127+9.444375</f>
-        <v>3692.206502</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
+        <f>3634.45013+9.444375</f>
+        <v>3643.8945050000002</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,7 +692,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>124944.26802768001</v>
+        <v>107859.27734800002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -669,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>9687</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
+        <v>9325</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -680,11 +714,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>95808+5720</f>
-        <v>101528</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>45</v>
+        <f>5852+93211</f>
+        <v>99063</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -693,7 +727,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>216785.26802767999</v>
+        <v>197597.27734800003</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -716,19 +750,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B635C668-6058-4A9E-9B76-874D42A89C4B}">
-  <dimension ref="A1:AT290"/>
+  <dimension ref="A1:AT297"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -776,33 +810,25 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>17951</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>17868</v>
-      </c>
-      <c r="H3" s="3">
-        <v>17824</v>
-      </c>
-      <c r="I3" s="3">
-        <v>17866</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>17642</v>
-      </c>
-      <c r="L3" s="3">
-        <v>17814</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="B3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
+        <v>51667</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
+        <v>50947</v>
+      </c>
+      <c r="N3" s="13"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -829,35 +855,31 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>2320</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>2407</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2421</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2425</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>2496</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2575</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
+        <v>31981</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>31436</v>
+      </c>
+      <c r="N4" s="13"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -884,35 +906,31 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>6029</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>6371</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6324</v>
-      </c>
-      <c r="I5" s="3">
-        <v>8231</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>6440</v>
-      </c>
-      <c r="L5" s="3">
-        <v>6440</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="B5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
+        <v>7519</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13">
+        <v>8941</v>
+      </c>
+      <c r="N5" s="13"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -939,35 +957,31 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>2518</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>2743</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2253</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2826</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>2826</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2432</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13">
+        <v>12834</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>11515</v>
+      </c>
+      <c r="N6" s="13"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -998,46 +1012,36 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>2418</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>1979</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1975</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2289</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>1876</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2349</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
+        <v>63355</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14">
+        <v>64639</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1059,158 +1063,71 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>656</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>779</v>
-      </c>
-      <c r="H8" s="3">
-        <v>715</v>
-      </c>
-      <c r="I8" s="3">
-        <v>686</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>752</v>
-      </c>
-      <c r="L8" s="3">
-        <v>717</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
+      <c r="B8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="12">
+        <v>0.503</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
-        <v>30115</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>30058</v>
-      </c>
-      <c r="H9" s="7">
-        <v>29688</v>
-      </c>
-      <c r="I9" s="7">
-        <v>32070</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
-        <v>29887</v>
-      </c>
-      <c r="L9" s="7">
-        <v>30313</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>8652</v>
+        <v>17951</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <v>8823</v>
+        <v>17868</v>
       </c>
       <c r="H10" s="3">
-        <v>7961</v>
+        <v>17824</v>
       </c>
       <c r="I10" s="3">
-        <v>10216</v>
+        <v>17866</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>8415</v>
+        <v>17642</v>
       </c>
       <c r="L10" s="3">
-        <v>7576</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>17814</v>
+      </c>
+      <c r="M10" s="3">
+        <v>17601</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1238,65 +1155,37 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:H11" si="0">+C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>21463</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>2320</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>21235</v>
+        <v>2407</v>
       </c>
       <c r="H11" s="3">
-        <f>+H9-H10</f>
-        <v>21727</v>
+        <v>2421</v>
       </c>
       <c r="I11" s="3">
-        <f>+I9-I10</f>
-        <v>21854</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" ref="J11:N11" si="1">+J9-J10</f>
-        <v>0</v>
-      </c>
+        <v>2425</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>21472</v>
+        <v>2496</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="1"/>
-        <v>22737</v>
+        <v>2575</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>2576</v>
+      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1323,40 +1212,36 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>1866</v>
+        <v>6029</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>2018</v>
+        <v>6371</v>
       </c>
       <c r="H12" s="3">
-        <v>1922</v>
+        <v>6324</v>
       </c>
       <c r="I12" s="3">
-        <v>1989</v>
+        <v>8231</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
-        <v>2071</v>
+        <v>6440</v>
       </c>
       <c r="L12" s="3">
-        <v>2168</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>6440</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6589</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1384,40 +1269,36 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>9629</v>
+        <v>2518</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <v>9857</v>
+        <v>2743</v>
       </c>
       <c r="H13" s="3">
-        <v>9630</v>
+        <v>2253</v>
       </c>
       <c r="I13" s="3">
-        <v>10128</v>
+        <v>2826</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>9893</v>
+        <v>2826</v>
       </c>
       <c r="L13" s="3">
-        <v>10422</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>2432</v>
+      </c>
+      <c r="M13" s="3">
+        <v>300</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1454,31 +1335,33 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <v>2203</v>
+        <v>2418</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>2175</v>
+        <v>1979</v>
       </c>
       <c r="H14" s="3">
-        <v>2153</v>
+        <v>1975</v>
       </c>
       <c r="I14" s="3">
-        <v>2219</v>
+        <v>2289</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <v>2231</v>
+        <v>1876</v>
       </c>
       <c r="L14" s="3">
         <v>2349</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>21717</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1515,31 +1398,33 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>1290</v>
+        <v>656</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>1376</v>
+        <v>779</v>
       </c>
       <c r="H15" s="3">
-        <v>1387</v>
+        <v>715</v>
       </c>
       <c r="I15" s="3">
-        <v>1659</v>
+        <v>686</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
-        <v>1618</v>
+        <v>752</v>
       </c>
       <c r="L15" s="3">
-        <v>1805</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>717</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1974</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1575,57 +1460,35 @@
       <c r="AT15" s="3"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:H16" si="2">+C11-SUM(C12:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="2"/>
-        <v>6475</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>5809</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>6635</v>
-      </c>
-      <c r="I16" s="3">
-        <f>+I11-SUM(I12:I15)</f>
-        <v>5859</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" ref="J16:N16" si="3">+J11-SUM(J12:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="3"/>
-        <v>5659</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="3"/>
-        <v>5993</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>30115</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>30058</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29688</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32070</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
+        <v>29887</v>
+      </c>
+      <c r="L16" s="7">
+        <v>30313</v>
+      </c>
+      <c r="M16" s="7">
+        <v>31198</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1661,31 +1524,33 @@
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <v>1060</v>
+        <v>8652</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
-        <v>1002</v>
+        <v>8823</v>
       </c>
       <c r="H17" s="3">
-        <v>1026</v>
+        <v>7961</v>
       </c>
       <c r="I17" s="3">
-        <v>1037</v>
+        <v>10216</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
-        <v>1050</v>
+        <v>8415</v>
       </c>
       <c r="L17" s="3">
-        <v>1105</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>7576</v>
+      </c>
+      <c r="M17" s="3">
+        <v>8655</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1722,32 +1587,56 @@
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:G18" si="0">+C16-C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E18" s="3">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3"/>
+        <f t="shared" si="0"/>
+        <v>21463</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="3">
-        <v>298</v>
+        <f t="shared" si="0"/>
+        <v>21235</v>
       </c>
       <c r="H18" s="3">
-        <v>-434</v>
+        <f>+H16-H17</f>
+        <v>21727</v>
       </c>
       <c r="I18" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J18" s="3"/>
+        <f>+I16-I17</f>
+        <v>21854</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:N18" si="1">+J16-J17</f>
+        <v>0</v>
+      </c>
       <c r="K18" s="3">
-        <v>-116</v>
+        <f t="shared" si="1"/>
+        <v>21472</v>
       </c>
       <c r="L18" s="3">
-        <v>9760</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+        <f t="shared" si="1"/>
+        <v>22737</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>22543</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1783,56 +1672,34 @@
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:H19" si="4">+C16-C17+C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <f t="shared" si="4"/>
-        <v>5465</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>1866</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3">
-        <f t="shared" si="4"/>
-        <v>5105</v>
+        <v>2018</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>5175</v>
+        <v>1922</v>
       </c>
       <c r="I19" s="3">
-        <f>+I16-I17+I18</f>
-        <v>4819</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" ref="J19:N19" si="5">+J16-J17+J18</f>
-        <v>0</v>
-      </c>
+        <v>1989</v>
+      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="3">
-        <f t="shared" si="5"/>
-        <v>4493</v>
+        <v>2071</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="5"/>
-        <v>14648</v>
+        <v>2168</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>2196</v>
+      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1868,31 +1735,33 @@
     </row>
     <row r="20" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <v>1468</v>
+        <v>9629</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
-        <v>1328</v>
+        <v>9857</v>
       </c>
       <c r="H20" s="3">
-        <v>3839</v>
+        <v>9630</v>
       </c>
       <c r="I20" s="3">
-        <v>1243</v>
+        <v>10128</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3">
-        <v>1196</v>
+        <v>9893</v>
       </c>
       <c r="L20" s="3">
-        <v>3603</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>10422</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10795</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1929,56 +1798,34 @@
     </row>
     <row r="21" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:H21" si="6">+C19-C20</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <f t="shared" si="6"/>
-        <v>3997</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>2203</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3">
-        <f t="shared" si="6"/>
-        <v>3777</v>
+        <v>2175</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="6"/>
-        <v>1336</v>
+        <v>2153</v>
       </c>
       <c r="I21" s="3">
-        <f>+I19-I20</f>
-        <v>3576</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="J21:N21" si="7">+J19-J20</f>
-        <v>0</v>
-      </c>
+        <v>2219</v>
+      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3">
-        <f t="shared" si="7"/>
-        <v>3297</v>
+        <v>2231</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="7"/>
-        <v>11045</v>
+        <v>2349</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>2353</v>
+      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2014,31 +1861,33 @@
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
-        <v>-49</v>
+        <v>1290</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
-        <v>-79</v>
+        <v>1376</v>
       </c>
       <c r="H22" s="3">
-        <v>-89</v>
+        <v>1387</v>
       </c>
       <c r="I22" s="3">
-        <v>-53</v>
+        <v>1659</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3">
-        <v>-79</v>
+        <v>1618</v>
       </c>
       <c r="L22" s="3">
-        <v>-79</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>1805</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1666</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -2075,54 +1924,54 @@
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:H23" si="8">+C21-C22</f>
+        <f t="shared" ref="C23:H23" si="2">+C18-SUM(C19:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="8"/>
-        <v>4046</v>
+        <f t="shared" si="2"/>
+        <v>6475</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="8"/>
-        <v>3856</v>
+        <f t="shared" si="2"/>
+        <v>5809</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="8"/>
-        <v>1425</v>
+        <f t="shared" si="2"/>
+        <v>6635</v>
       </c>
       <c r="I23" s="3">
-        <f>+I21-I22</f>
-        <v>3629</v>
+        <f>+I18-SUM(I19:I22)</f>
+        <v>5859</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23:N23" si="9">+J21-J22</f>
+        <f t="shared" ref="J23:N23" si="3">+J18-SUM(J19:J22)</f>
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="9"/>
-        <v>3376</v>
+        <f t="shared" si="3"/>
+        <v>5659</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="9"/>
-        <v>11124</v>
+        <f t="shared" si="3"/>
+        <v>5993</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5533</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="3"/>
@@ -2159,17 +2008,34 @@
       <c r="AT23" s="3"/>
     </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>1060</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1026</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1037</v>
+      </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="K24" s="3">
+        <v>1050</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1105</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1128</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2206,35 +2072,33 @@
     </row>
     <row r="25" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="8">
-        <v>0.98</v>
+      <c r="E25" s="3">
+        <v>50</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="8">
-        <f>+G23/G26</f>
-        <v>0.97398332912351604</v>
-      </c>
-      <c r="H25" s="8">
-        <f>+H23/H26</f>
-        <v>0.36491677336747758</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.94</v>
+      <c r="G25" s="3">
+        <v>298</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-434</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-3</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="8">
-        <f>+K23/K26</f>
-        <v>0.89596602972399153</v>
-      </c>
-      <c r="L25" s="8">
-        <f>+L23/L26</f>
-        <v>2.9903225806451612</v>
-      </c>
-      <c r="M25" s="3"/>
+      <c r="K25" s="3">
+        <v>-116</v>
+      </c>
+      <c r="L25" s="3">
+        <v>9760</v>
+      </c>
+      <c r="M25" s="3">
+        <v>61</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2271,37 +2135,56 @@
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:H26" si="4">+C23-C24+C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E26" s="3">
-        <f>+E23/E25</f>
-        <v>4128.5714285714284</v>
-      </c>
-      <c r="F26" s="3"/>
+        <f t="shared" si="4"/>
+        <v>5465</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="3">
-        <v>3959</v>
+        <f t="shared" si="4"/>
+        <v>5105</v>
       </c>
       <c r="H26" s="3">
-        <v>3905</v>
+        <f t="shared" si="4"/>
+        <v>5175</v>
       </c>
       <c r="I26" s="3">
-        <f>+I23/I25</f>
-        <v>3860.6382978723404</v>
-      </c>
-      <c r="J26" s="3" t="e">
-        <f t="shared" ref="J26" si="10">+J23/J25</f>
-        <v>#DIV/0!</v>
+        <f>+I23-I24+I25</f>
+        <v>4819</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:N26" si="5">+J23-J24+J25</f>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>3768</v>
+        <f t="shared" si="5"/>
+        <v>4493</v>
       </c>
       <c r="L26" s="3">
-        <v>3720</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+        <f t="shared" si="5"/>
+        <v>14648</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="5"/>
+        <v>4466</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2336,17 +2219,34 @@
       <c r="AT26" s="3"/>
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>1468</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="3">
+        <v>1328</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3839</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1243</v>
+      </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="K27" s="3">
+        <v>1196</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3603</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1218</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2382,18 +2282,57 @@
       <c r="AT27" s="3"/>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:H28" si="6">+C26-C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="6"/>
+        <v>3997</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="6"/>
+        <v>3777</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="6"/>
+        <v>1336</v>
+      </c>
+      <c r="I28" s="3">
+        <f>+I26-I27</f>
+        <v>3576</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:N28" si="7">+J26-J27</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="7"/>
+        <v>3297</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="7"/>
+        <v>11045</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="7"/>
+        <v>3248</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2428,17 +2367,34 @@
       <c r="AT28" s="3"/>
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>-49</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="G29" s="3">
+        <v>-79</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-89</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-53</v>
+      </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="K29" s="3">
+        <v>-79</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-79</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-83</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2474,18 +2430,57 @@
       <c r="AT29" s="3"/>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:H30" si="8">+C28-C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="8"/>
+        <v>4046</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="8"/>
+        <v>3856</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="8"/>
+        <v>1425</v>
+      </c>
+      <c r="I30" s="3">
+        <f>+I28-I29</f>
+        <v>3629</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:N30" si="9">+J28-J29</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="9"/>
+        <v>3376</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="9"/>
+        <v>11124</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="9"/>
+        <v>3331</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2525,7 +2520,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2566,17 +2561,39 @@
       <c r="AT31" s="3"/>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="8">
+        <v>0.98</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="8">
+        <f>+G30/G33</f>
+        <v>0.97398332912351604</v>
+      </c>
+      <c r="H32" s="8">
+        <f>+H30/H33</f>
+        <v>0.36491677336747758</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.94</v>
+      </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="K32" s="8">
+        <f>+K30/K33</f>
+        <v>0.89596602972399153</v>
+      </c>
+      <c r="L32" s="8">
+        <f>+L30/L33</f>
+        <v>2.9903225806451612</v>
+      </c>
+      <c r="M32" s="8">
+        <f>+M30/M33</f>
+        <v>0.90540907855395492</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2611,18 +2628,40 @@
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
     </row>
-    <row r="33" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <f>+E30/E32</f>
+        <v>4128.5714285714284</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="G33" s="3">
+        <v>3959</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3905</v>
+      </c>
+      <c r="I33" s="3">
+        <f>+I30/I32</f>
+        <v>3860.6382978723404</v>
+      </c>
+      <c r="J33" s="3" t="e">
+        <f t="shared" ref="J33" si="10">+J30/J32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3768</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3720</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3679</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2657,7 +2696,7 @@
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
     </row>
-    <row r="34" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2703,7 +2742,7 @@
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
     </row>
-    <row r="35" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2749,7 +2788,7 @@
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
     </row>
-    <row r="36" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2795,7 +2834,7 @@
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2841,7 +2880,7 @@
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
     </row>
-    <row r="38" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2887,7 +2926,7 @@
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
     </row>
-    <row r="39" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2933,7 +2972,7 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
     </row>
-    <row r="40" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2979,7 +3018,7 @@
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
     </row>
-    <row r="41" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3025,7 +3064,7 @@
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3071,7 +3110,7 @@
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
     </row>
-    <row r="43" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3117,7 +3156,7 @@
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
     </row>
-    <row r="44" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3163,7 +3202,7 @@
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
     </row>
-    <row r="45" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3209,7 +3248,7 @@
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
     </row>
-    <row r="46" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3255,7 +3294,7 @@
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
     </row>
-    <row r="47" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3301,7 +3340,7 @@
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
     </row>
-    <row r="48" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -14479,6 +14518,328 @@
       <c r="AS290" s="3"/>
       <c r="AT290" s="3"/>
     </row>
+    <row r="291" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="3"/>
+      <c r="U291" s="3"/>
+      <c r="V291" s="3"/>
+      <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
+      <c r="Y291" s="3"/>
+      <c r="Z291" s="3"/>
+      <c r="AA291" s="3"/>
+      <c r="AB291" s="3"/>
+      <c r="AC291" s="3"/>
+      <c r="AD291" s="3"/>
+      <c r="AE291" s="3"/>
+      <c r="AF291" s="3"/>
+      <c r="AG291" s="3"/>
+      <c r="AH291" s="3"/>
+      <c r="AI291" s="3"/>
+      <c r="AJ291" s="3"/>
+      <c r="AK291" s="3"/>
+      <c r="AL291" s="3"/>
+      <c r="AM291" s="3"/>
+      <c r="AN291" s="3"/>
+      <c r="AO291" s="3"/>
+      <c r="AP291" s="3"/>
+      <c r="AQ291" s="3"/>
+      <c r="AR291" s="3"/>
+      <c r="AS291" s="3"/>
+      <c r="AT291" s="3"/>
+    </row>
+    <row r="292" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3"/>
+      <c r="P292" s="3"/>
+      <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
+      <c r="S292" s="3"/>
+      <c r="T292" s="3"/>
+      <c r="U292" s="3"/>
+      <c r="V292" s="3"/>
+      <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
+      <c r="Y292" s="3"/>
+      <c r="Z292" s="3"/>
+      <c r="AA292" s="3"/>
+      <c r="AB292" s="3"/>
+      <c r="AC292" s="3"/>
+      <c r="AD292" s="3"/>
+      <c r="AE292" s="3"/>
+      <c r="AF292" s="3"/>
+      <c r="AG292" s="3"/>
+      <c r="AH292" s="3"/>
+      <c r="AI292" s="3"/>
+      <c r="AJ292" s="3"/>
+      <c r="AK292" s="3"/>
+      <c r="AL292" s="3"/>
+      <c r="AM292" s="3"/>
+      <c r="AN292" s="3"/>
+      <c r="AO292" s="3"/>
+      <c r="AP292" s="3"/>
+      <c r="AQ292" s="3"/>
+      <c r="AR292" s="3"/>
+      <c r="AS292" s="3"/>
+      <c r="AT292" s="3"/>
+    </row>
+    <row r="293" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="3"/>
+      <c r="T293" s="3"/>
+      <c r="U293" s="3"/>
+      <c r="V293" s="3"/>
+      <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
+      <c r="Y293" s="3"/>
+      <c r="Z293" s="3"/>
+      <c r="AA293" s="3"/>
+      <c r="AB293" s="3"/>
+      <c r="AC293" s="3"/>
+      <c r="AD293" s="3"/>
+      <c r="AE293" s="3"/>
+      <c r="AF293" s="3"/>
+      <c r="AG293" s="3"/>
+      <c r="AH293" s="3"/>
+      <c r="AI293" s="3"/>
+      <c r="AJ293" s="3"/>
+      <c r="AK293" s="3"/>
+      <c r="AL293" s="3"/>
+      <c r="AM293" s="3"/>
+      <c r="AN293" s="3"/>
+      <c r="AO293" s="3"/>
+      <c r="AP293" s="3"/>
+      <c r="AQ293" s="3"/>
+      <c r="AR293" s="3"/>
+      <c r="AS293" s="3"/>
+      <c r="AT293" s="3"/>
+    </row>
+    <row r="294" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="3"/>
+      <c r="T294" s="3"/>
+      <c r="U294" s="3"/>
+      <c r="V294" s="3"/>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
+      <c r="Y294" s="3"/>
+      <c r="Z294" s="3"/>
+      <c r="AA294" s="3"/>
+      <c r="AB294" s="3"/>
+      <c r="AC294" s="3"/>
+      <c r="AD294" s="3"/>
+      <c r="AE294" s="3"/>
+      <c r="AF294" s="3"/>
+      <c r="AG294" s="3"/>
+      <c r="AH294" s="3"/>
+      <c r="AI294" s="3"/>
+      <c r="AJ294" s="3"/>
+      <c r="AK294" s="3"/>
+      <c r="AL294" s="3"/>
+      <c r="AM294" s="3"/>
+      <c r="AN294" s="3"/>
+      <c r="AO294" s="3"/>
+      <c r="AP294" s="3"/>
+      <c r="AQ294" s="3"/>
+      <c r="AR294" s="3"/>
+      <c r="AS294" s="3"/>
+      <c r="AT294" s="3"/>
+    </row>
+    <row r="295" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+      <c r="Y295" s="3"/>
+      <c r="Z295" s="3"/>
+      <c r="AA295" s="3"/>
+      <c r="AB295" s="3"/>
+      <c r="AC295" s="3"/>
+      <c r="AD295" s="3"/>
+      <c r="AE295" s="3"/>
+      <c r="AF295" s="3"/>
+      <c r="AG295" s="3"/>
+      <c r="AH295" s="3"/>
+      <c r="AI295" s="3"/>
+      <c r="AJ295" s="3"/>
+      <c r="AK295" s="3"/>
+      <c r="AL295" s="3"/>
+      <c r="AM295" s="3"/>
+      <c r="AN295" s="3"/>
+      <c r="AO295" s="3"/>
+      <c r="AP295" s="3"/>
+      <c r="AQ295" s="3"/>
+      <c r="AR295" s="3"/>
+      <c r="AS295" s="3"/>
+      <c r="AT295" s="3"/>
+    </row>
+    <row r="296" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+      <c r="Y296" s="3"/>
+      <c r="Z296" s="3"/>
+      <c r="AA296" s="3"/>
+      <c r="AB296" s="3"/>
+      <c r="AC296" s="3"/>
+      <c r="AD296" s="3"/>
+      <c r="AE296" s="3"/>
+      <c r="AF296" s="3"/>
+      <c r="AG296" s="3"/>
+      <c r="AH296" s="3"/>
+      <c r="AI296" s="3"/>
+      <c r="AJ296" s="3"/>
+      <c r="AK296" s="3"/>
+      <c r="AL296" s="3"/>
+      <c r="AM296" s="3"/>
+      <c r="AN296" s="3"/>
+      <c r="AO296" s="3"/>
+      <c r="AP296" s="3"/>
+      <c r="AQ296" s="3"/>
+      <c r="AR296" s="3"/>
+      <c r="AS296" s="3"/>
+      <c r="AT296" s="3"/>
+    </row>
+    <row r="297" spans="3:46" x14ac:dyDescent="0.2">
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+      <c r="Y297" s="3"/>
+      <c r="Z297" s="3"/>
+      <c r="AA297" s="3"/>
+      <c r="AB297" s="3"/>
+      <c r="AC297" s="3"/>
+      <c r="AD297" s="3"/>
+      <c r="AE297" s="3"/>
+      <c r="AF297" s="3"/>
+      <c r="AG297" s="3"/>
+      <c r="AH297" s="3"/>
+      <c r="AI297" s="3"/>
+      <c r="AJ297" s="3"/>
+      <c r="AK297" s="3"/>
+      <c r="AL297" s="3"/>
+      <c r="AM297" s="3"/>
+      <c r="AN297" s="3"/>
+      <c r="AO297" s="3"/>
+      <c r="AP297" s="3"/>
+      <c r="AQ297" s="3"/>
+      <c r="AR297" s="3"/>
+      <c r="AS297" s="3"/>
+      <c r="AT297" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EDEB892F-5C36-462F-A60A-BFEDFB42C4CE}"/>
